--- a/run_log/run_results/train_history/training_history_run_11.xlsx
+++ b/run_log/run_results/train_history/training_history_run_11.xlsx
@@ -395,601 +395,601 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.0504474826157093</v>
+        <v>0.1203532293438911</v>
       </c>
       <c r="B2">
-        <v>0.9889299869537354</v>
+        <v>0.9663216471672058</v>
       </c>
       <c r="C2">
-        <v>0.05078156664967537</v>
+        <v>0.00965847447514534</v>
       </c>
       <c r="D2">
-        <v>0.9754473567008972</v>
+        <v>0.9986239671707153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.007767699658870697</v>
+        <v>0.04102656617760658</v>
       </c>
       <c r="B3">
-        <v>0.9983890652656555</v>
+        <v>0.9869323968887329</v>
       </c>
       <c r="C3">
-        <v>0.005861493293195963</v>
+        <v>0.005794307682663202</v>
       </c>
       <c r="D3">
-        <v>0.9979192614555359</v>
+        <v>0.9988205432891846</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.00394544517621398</v>
+        <v>0.0319218710064888</v>
       </c>
       <c r="B4">
-        <v>0.9987401366233826</v>
+        <v>0.9867488741874695</v>
       </c>
       <c r="C4">
-        <v>0.001367808436043561</v>
+        <v>0.002638776553794742</v>
       </c>
       <c r="D4">
-        <v>0.9995838403701782</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001722039189189672</v>
+        <v>0.02772567421197891</v>
       </c>
       <c r="B5">
-        <v>0.9995043277740479</v>
+        <v>0.9877216219902039</v>
       </c>
       <c r="C5">
-        <v>0.0007682013092562556</v>
+        <v>0.002566085197031498</v>
       </c>
       <c r="D5">
-        <v>0.9997919201850891</v>
+        <v>0.9990171194076538</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0008618910796940327</v>
+        <v>0.02652188017964363</v>
       </c>
       <c r="B6">
-        <v>0.9997108578681946</v>
+        <v>0.9871709942817688</v>
       </c>
       <c r="C6">
-        <v>0.001308007864281535</v>
+        <v>0.002559904474765062</v>
       </c>
       <c r="D6">
-        <v>0.9995838403701782</v>
+        <v>0.999213695526123</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001548417611047626</v>
+        <v>0.027694933116436</v>
       </c>
       <c r="B7">
-        <v>0.9996488690376282</v>
+        <v>0.986345112323761</v>
       </c>
       <c r="C7">
-        <v>0.000664524850435555</v>
+        <v>0.002281582681462169</v>
       </c>
       <c r="D7">
-        <v>0.9997919201850891</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0008824546239338815</v>
+        <v>0.02633259259164333</v>
       </c>
       <c r="B8">
-        <v>0.9997934699058533</v>
+        <v>0.9870976209640503</v>
       </c>
       <c r="C8">
-        <v>0.0004802209150511771</v>
+        <v>0.00235939072445035</v>
       </c>
       <c r="D8">
-        <v>0.9997919201850891</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0004354403645265847</v>
+        <v>0.02104805037379265</v>
       </c>
       <c r="B9">
-        <v>0.9998553991317749</v>
+        <v>0.992144763469696</v>
       </c>
       <c r="C9">
-        <v>0.0003826709289569408</v>
+        <v>0.00243689795024693</v>
       </c>
       <c r="D9">
-        <v>0.9997919201850891</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0006383905420079827</v>
+        <v>0.01621822267770767</v>
       </c>
       <c r="B10">
-        <v>0.9998347759246826</v>
+        <v>0.9944756627082825</v>
       </c>
       <c r="C10">
-        <v>0.001454571145586669</v>
+        <v>0.002256201114505529</v>
       </c>
       <c r="D10">
-        <v>0.9991676807403564</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0001777492580004036</v>
+        <v>0.01782448962330818</v>
       </c>
       <c r="B11">
-        <v>0.9999380111694336</v>
+        <v>0.9939984679222107</v>
       </c>
       <c r="C11">
-        <v>0.0002537286491133273</v>
+        <v>0.002047296613454819</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0007794431294314563</v>
+        <v>0.01590178161859512</v>
       </c>
       <c r="B12">
-        <v>0.9997934699058533</v>
+        <v>0.9943655133247375</v>
       </c>
       <c r="C12">
-        <v>0.0002342181542189792</v>
+        <v>0.002142859855666757</v>
       </c>
       <c r="D12">
-        <v>0.9997919201850891</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0003219154023099691</v>
+        <v>0.01393329165875912</v>
       </c>
       <c r="B13">
-        <v>0.9998967051506042</v>
+        <v>0.9944389462471008</v>
       </c>
       <c r="C13">
-        <v>0.0001166588190244511</v>
+        <v>0.001983621623367071</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0007761968881823123</v>
+        <v>0.01311806030571461</v>
       </c>
       <c r="B14">
-        <v>0.9998140931129456</v>
+        <v>0.9938149452209473</v>
       </c>
       <c r="C14">
-        <v>0.000139158612000756</v>
+        <v>0.00204885471612215</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.000203349714865908</v>
+        <v>0.01174562238156796</v>
       </c>
       <c r="B15">
-        <v>0.9999586939811707</v>
+        <v>0.9944022297859192</v>
       </c>
       <c r="C15">
-        <v>0.0005967918550595641</v>
+        <v>0.0009462705347687006</v>
       </c>
       <c r="D15">
-        <v>0.9997919201850891</v>
+        <v>0.9997051358222961</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0005637686117552221</v>
+        <v>0.0113264936953783</v>
       </c>
       <c r="B16">
-        <v>0.9998140931129456</v>
+        <v>0.9944022297859192</v>
       </c>
       <c r="C16">
-        <v>0.0001172854244941846</v>
+        <v>0.0005992038641124964</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9998034238815308</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0001142794862971641</v>
+        <v>0.01074049156159163</v>
       </c>
       <c r="B17">
-        <v>0.9999380111694336</v>
+        <v>0.9946775436401367</v>
       </c>
       <c r="C17">
-        <v>0.0002342619554838166</v>
+        <v>0.0004881830245722085</v>
       </c>
       <c r="D17">
-        <v>0.9997919201850891</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0001004292571451515</v>
+        <v>0.01027867756783962</v>
       </c>
       <c r="B18">
-        <v>0.9999380111694336</v>
+        <v>0.9950262308120728</v>
       </c>
       <c r="C18">
-        <v>1.547115607536398E-05</v>
+        <v>0.0005430252640508115</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>4.039880150230601E-05</v>
+        <v>0.01105912495404482</v>
       </c>
       <c r="B19">
-        <v>0.9999793171882629</v>
+        <v>0.994769275188446</v>
       </c>
       <c r="C19">
-        <v>4.730125510832295E-05</v>
+        <v>0.0006017456180416048</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0002572940138634294</v>
+        <v>0.009915491566061974</v>
       </c>
       <c r="B20">
-        <v>0.9999173879623413</v>
+        <v>0.9951914548873901</v>
       </c>
       <c r="C20">
-        <v>0.0004951091832481325</v>
+        <v>0.0003327756130602211</v>
       </c>
       <c r="D20">
-        <v>0.9995838403701782</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0006479284493252635</v>
+        <v>0.01017281599342823</v>
       </c>
       <c r="B21">
-        <v>0.9998967051506042</v>
+        <v>0.9951180219650269</v>
       </c>
       <c r="C21">
-        <v>0.0001454668235965073</v>
+        <v>0.0006884746835567057</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0002424013800919056</v>
+        <v>0.0114231500774622</v>
       </c>
       <c r="B22">
-        <v>0.9998967051506042</v>
+        <v>0.9943287968635559</v>
       </c>
       <c r="C22">
-        <v>0.0001123052934417501</v>
+        <v>0.0004984972765669227</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>4.372670809971169E-05</v>
+        <v>0.01046718657016754</v>
       </c>
       <c r="B23">
-        <v>0.9999793171882629</v>
+        <v>0.9950813055038452</v>
       </c>
       <c r="C23">
-        <v>0.0004886686219833791</v>
+        <v>0.0004139374941587448</v>
       </c>
       <c r="D23">
-        <v>0.9997919201850891</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0002427043946227059</v>
+        <v>0.008847244083881378</v>
       </c>
       <c r="B24">
-        <v>0.9998967051506042</v>
+        <v>0.9975773692131042</v>
       </c>
       <c r="C24">
-        <v>0.0002546449832152575</v>
+        <v>0.001170452916994691</v>
       </c>
       <c r="D24">
-        <v>0.9997919201850891</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>3.199357888661325E-05</v>
+        <v>0.008417185395956039</v>
       </c>
       <c r="B25">
-        <v>0.9999793171882629</v>
+        <v>0.9973938465118408</v>
       </c>
       <c r="C25">
-        <v>1.616082386135531E-06</v>
+        <v>0.001021871925331652</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9993119835853577</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>7.499186267523328E-06</v>
+        <v>0.007609129417687654</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.9975773692131042</v>
       </c>
       <c r="C26">
-        <v>5.757042799814371E-06</v>
+        <v>0.0006814959342591465</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9998034238815308</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0002687861560843885</v>
+        <v>0.008907496929168701</v>
       </c>
       <c r="B27">
-        <v>0.9999586939811707</v>
+        <v>0.9974305033683777</v>
       </c>
       <c r="C27">
-        <v>1.176509340439225E-05</v>
+        <v>0.0009621906210668385</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9998034238815308</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0002502201532479376</v>
+        <v>0.00811323057860136</v>
       </c>
       <c r="B28">
-        <v>0.9999380111694336</v>
+        <v>0.9971919655799866</v>
       </c>
       <c r="C28">
-        <v>0.0002838553336914629</v>
+        <v>0.0008256899891421199</v>
       </c>
       <c r="D28">
-        <v>0.9997919201850891</v>
+        <v>0.9998034238815308</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.00044356266153045</v>
+        <v>0.007435527164489031</v>
       </c>
       <c r="B29">
-        <v>0.9998553991317749</v>
+        <v>0.9974488615989685</v>
       </c>
       <c r="C29">
-        <v>7.405124051729217E-05</v>
+        <v>0.0005298028700053692</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0005671423277817667</v>
+        <v>0.00739273801445961</v>
       </c>
       <c r="B30">
-        <v>0.9998553991317749</v>
+        <v>0.997503936290741</v>
       </c>
       <c r="C30">
-        <v>2.810909973050002E-05</v>
+        <v>0.001015812740661204</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9997051358222961</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>9.298744771513157E-06</v>
+        <v>0.006953287404030561</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.9979260563850403</v>
       </c>
       <c r="C31">
-        <v>7.873070717323571E-05</v>
+        <v>0.0004473814333323389</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9998034238815308</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0002157113485736772</v>
+        <v>0.007381321396678686</v>
       </c>
       <c r="B32">
-        <v>0.9999173879623413</v>
+        <v>0.9975222945213318</v>
       </c>
       <c r="C32">
-        <v>1.299046630265366E-07</v>
+        <v>0.0003154218138661236</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>1.45481435538386E-05</v>
+        <v>0.006785957142710686</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.9977976083755493</v>
       </c>
       <c r="C33">
-        <v>0.0005315716844052076</v>
+        <v>0.000542494235560298</v>
       </c>
       <c r="D33">
-        <v>0.9997919201850891</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0007117370842024684</v>
+        <v>0.006779805291444063</v>
       </c>
       <c r="B34">
-        <v>0.9998967051506042</v>
+        <v>0.9978159666061401</v>
       </c>
       <c r="C34">
-        <v>1.665397064698482E-07</v>
+        <v>0.0008555236854590476</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9998034238815308</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>5.742819485021755E-05</v>
+        <v>0.008806852623820305</v>
       </c>
       <c r="B35">
-        <v>0.9999793171882629</v>
+        <v>0.997503936290741</v>
       </c>
       <c r="C35">
-        <v>9.327384759671986E-06</v>
+        <v>0.0003822158323600888</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0003261348174419254</v>
+        <v>0.007184704300016165</v>
       </c>
       <c r="B36">
-        <v>0.9999586939811707</v>
+        <v>0.9975957274436951</v>
       </c>
       <c r="C36">
-        <v>4.302281979562395E-07</v>
+        <v>0.0005157907144166529</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0002120546560036018</v>
+        <v>0.006982109975069761</v>
       </c>
       <c r="B37">
-        <v>0.9999793171882629</v>
+        <v>0.9977976083755493</v>
       </c>
       <c r="C37">
-        <v>0.0002163221215596423</v>
+        <v>0.0005219883169047534</v>
       </c>
       <c r="D37">
-        <v>0.9997919201850891</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1.221194179379381E-05</v>
+        <v>0.007302414625883102</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>0.9975773692131042</v>
       </c>
       <c r="C38">
-        <v>4.764320237882202E-06</v>
+        <v>0.0003113193379249424</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>6.224169283086667E-06</v>
+        <v>0.006134184077382088</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9980178475379944</v>
       </c>
       <c r="C39">
-        <v>5.170591066416819E-07</v>
+        <v>0.000159800925757736</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>2.721922101045493E-05</v>
+        <v>0.00695985509082675</v>
       </c>
       <c r="B40">
-        <v>0.9999793171882629</v>
+        <v>0.9975957274436951</v>
       </c>
       <c r="C40">
-        <v>1.783115749276476E-06</v>
+        <v>9.586791566107422E-05</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.000201626869966276</v>
+        <v>0.006408245768398046</v>
       </c>
       <c r="B41">
-        <v>0.9999380111694336</v>
+        <v>0.9978526830673218</v>
       </c>
       <c r="C41">
-        <v>2.186800202252925E-06</v>
+        <v>9.631867578718811E-05</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>1.765542151588306E-06</v>
+        <v>0.007292019668966532</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.9978710412979126</v>
       </c>
       <c r="C42">
-        <v>2.325957666471368E-06</v>
+        <v>0.0005408322322182357</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>3.101119000348262E-05</v>
+        <v>0.006705497391521931</v>
       </c>
       <c r="B43">
-        <v>0.9999793171882629</v>
+        <v>0.9978159666061401</v>
       </c>
       <c r="C43">
-        <v>1.049462809987745E-07</v>
+        <v>0.0001541848614579067</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0005975941894575953</v>
+        <v>0.00614152243360877</v>
       </c>
       <c r="B44">
-        <v>0.9999173879623413</v>
+        <v>0.9980178475379944</v>
       </c>
       <c r="C44">
-        <v>1.130054982922957E-07</v>
+        <v>5.653822154272348E-05</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -997,100 +997,100 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0001532546448288485</v>
+        <v>0.007476923055946827</v>
       </c>
       <c r="B45">
-        <v>0.9999380111694336</v>
+        <v>0.9976691007614136</v>
       </c>
       <c r="C45">
-        <v>1.107660227717133E-05</v>
+        <v>0.0001613223139429465</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0005249563837423921</v>
+        <v>0.006865560542792082</v>
       </c>
       <c r="B46">
-        <v>0.9999173879623413</v>
+        <v>0.9977792501449585</v>
       </c>
       <c r="C46">
-        <v>4.399946192279458E-06</v>
+        <v>0.000171358507941477</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0003301143588032573</v>
+        <v>0.006822815630584955</v>
       </c>
       <c r="B47">
-        <v>0.9998967051506042</v>
+        <v>0.9977792501449585</v>
       </c>
       <c r="C47">
-        <v>0.0003438375424593687</v>
+        <v>6.540516915265471E-05</v>
       </c>
       <c r="D47">
-        <v>0.9997919201850891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0003385650052223355</v>
+        <v>0.006857239175587893</v>
       </c>
       <c r="B48">
-        <v>0.9999586939811707</v>
+        <v>0.9979260563850403</v>
       </c>
       <c r="C48">
-        <v>7.584846025565639E-05</v>
+        <v>9.986878285417333E-05</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>6.444020255003124E-05</v>
+        <v>0.0059819002635777</v>
       </c>
       <c r="B49">
-        <v>0.9999793171882629</v>
+        <v>0.9980362057685852</v>
       </c>
       <c r="C49">
-        <v>5.625186716429198E-08</v>
+        <v>0.0002893107302952558</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0006079298327676952</v>
+        <v>0.006553341634571552</v>
       </c>
       <c r="B50">
-        <v>0.9999380111694336</v>
+        <v>0.997724175453186</v>
       </c>
       <c r="C50">
-        <v>2.162849632725283E-08</v>
+        <v>0.0005381765658967197</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>3.093488339800388E-05</v>
+        <v>0.007236814592033625</v>
       </c>
       <c r="B51">
-        <v>0.9999793171882629</v>
+        <v>0.9973387718200684</v>
       </c>
       <c r="C51">
-        <v>8.305823229193265E-08</v>
+        <v>9.643127850722522E-05</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0.9999017119407654</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_11.xlsx
+++ b/run_log/run_results/train_history/training_history_run_11.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1203532293438911</v>
+        <v>0.06344039738178253</v>
       </c>
       <c r="B2">
-        <v>0.9663216471672058</v>
+        <v>0.9872387051582336</v>
       </c>
       <c r="C2">
-        <v>0.00965847447514534</v>
+        <v>0.01868856512010098</v>
       </c>
       <c r="D2">
-        <v>0.9986239671707153</v>
+        <v>0.9983006715774536</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.04102656617760658</v>
+        <v>0.009622324258089066</v>
       </c>
       <c r="B3">
-        <v>0.9869323968887329</v>
+        <v>0.9982057809829712</v>
       </c>
       <c r="C3">
-        <v>0.005794307682663202</v>
+        <v>0.009350425563752651</v>
       </c>
       <c r="D3">
-        <v>0.9988205432891846</v>
+        <v>0.9986274242401123</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.0319218710064888</v>
+        <v>0.004750330466777086</v>
       </c>
       <c r="B4">
-        <v>0.9867488741874695</v>
+        <v>0.9986991882324219</v>
       </c>
       <c r="C4">
-        <v>0.002638776553794742</v>
+        <v>0.04307442530989647</v>
       </c>
       <c r="D4">
-        <v>0.9993119835853577</v>
+        <v>0.9842483401298523</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.02772567421197891</v>
+        <v>0.002519248286262155</v>
       </c>
       <c r="B5">
-        <v>0.9877216219902039</v>
+        <v>0.9993944764137268</v>
       </c>
       <c r="C5">
-        <v>0.002566085197031498</v>
+        <v>0.1015850231051445</v>
       </c>
       <c r="D5">
-        <v>0.9990171194076538</v>
+        <v>0.9587581753730774</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.02652188017964363</v>
+        <v>0.001754428492859006</v>
       </c>
       <c r="B6">
-        <v>0.9871709942817688</v>
+        <v>0.9993944764137268</v>
       </c>
       <c r="C6">
-        <v>0.002559904474765062</v>
+        <v>0.005921387579292059</v>
       </c>
       <c r="D6">
-        <v>0.999213695526123</v>
+        <v>0.998431384563446</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.027694933116436</v>
+        <v>0.001033064094372094</v>
       </c>
       <c r="B7">
-        <v>0.986345112323761</v>
+        <v>0.9996860027313232</v>
       </c>
       <c r="C7">
-        <v>0.002281582681462169</v>
+        <v>0.002392819384112954</v>
       </c>
       <c r="D7">
-        <v>0.9993119835853577</v>
+        <v>0.9995424747467041</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.02633259259164333</v>
+        <v>0.000368318083928898</v>
       </c>
       <c r="B8">
-        <v>0.9870976209640503</v>
+        <v>0.9999327063560486</v>
       </c>
       <c r="C8">
-        <v>0.00235939072445035</v>
+        <v>0.00712552247568965</v>
       </c>
       <c r="D8">
-        <v>0.9993119835853577</v>
+        <v>0.9970588088035583</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.02104805037379265</v>
+        <v>0.001066728611476719</v>
       </c>
       <c r="B9">
-        <v>0.992144763469696</v>
+        <v>0.9995738863945007</v>
       </c>
       <c r="C9">
-        <v>0.00243689795024693</v>
+        <v>0.003266300074756145</v>
       </c>
       <c r="D9">
-        <v>0.9993119835853577</v>
+        <v>0.9990849494934082</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.01621822267770767</v>
+        <v>0.001054296619258821</v>
       </c>
       <c r="B10">
-        <v>0.9944756627082825</v>
+        <v>0.9996635913848877</v>
       </c>
       <c r="C10">
-        <v>0.002256201114505529</v>
+        <v>0.003284576814621687</v>
       </c>
       <c r="D10">
-        <v>0.9993119835853577</v>
+        <v>0.9996078610420227</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.01782448962330818</v>
+        <v>0.0003046854108106345</v>
       </c>
       <c r="B11">
-        <v>0.9939984679222107</v>
+        <v>0.9999327063560486</v>
       </c>
       <c r="C11">
-        <v>0.002047296613454819</v>
+        <v>0.001471647177822888</v>
       </c>
       <c r="D11">
-        <v>0.9993119835853577</v>
+        <v>0.999803900718689</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.01590178161859512</v>
+        <v>0.0007782182656228542</v>
       </c>
       <c r="B12">
-        <v>0.9943655133247375</v>
+        <v>0.9998205900192261</v>
       </c>
       <c r="C12">
-        <v>0.002142859855666757</v>
+        <v>0.002296320861205459</v>
       </c>
       <c r="D12">
-        <v>0.9993119835853577</v>
+        <v>0.9997385740280151</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.01393329165875912</v>
+        <v>0.001022602431476116</v>
       </c>
       <c r="B13">
-        <v>0.9944389462471008</v>
+        <v>0.9996635913848877</v>
       </c>
       <c r="C13">
-        <v>0.001983621623367071</v>
+        <v>0.0016708456678316</v>
       </c>
       <c r="D13">
-        <v>0.9993119835853577</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.01311806030571461</v>
+        <v>8.251862163888291E-05</v>
       </c>
       <c r="B14">
-        <v>0.9938149452209473</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.00204885471612215</v>
+        <v>0.00180995324626565</v>
       </c>
       <c r="D14">
-        <v>0.9993119835853577</v>
+        <v>0.9996078610420227</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.01174562238156796</v>
+        <v>0.0007882217178121209</v>
       </c>
       <c r="B15">
-        <v>0.9944022297859192</v>
+        <v>0.9998430013656616</v>
       </c>
       <c r="C15">
-        <v>0.0009462705347687006</v>
+        <v>0.001503518666140735</v>
       </c>
       <c r="D15">
-        <v>0.9997051358222961</v>
+        <v>0.9997385740280151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0113264936953783</v>
+        <v>0.0005129491328261793</v>
       </c>
       <c r="B16">
-        <v>0.9944022297859192</v>
+        <v>0.9997981786727905</v>
       </c>
       <c r="C16">
-        <v>0.0005992038641124964</v>
+        <v>0.0008394100586883724</v>
       </c>
       <c r="D16">
-        <v>0.9998034238815308</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.01074049156159163</v>
+        <v>0.0003737210354302078</v>
       </c>
       <c r="B17">
-        <v>0.9946775436401367</v>
+        <v>0.9998430013656616</v>
       </c>
       <c r="C17">
-        <v>0.0004881830245722085</v>
+        <v>0.02692805044353008</v>
       </c>
       <c r="D17">
-        <v>0.9999017119407654</v>
+        <v>0.9896078705787659</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.01027867756783962</v>
+        <v>0.000610753137152642</v>
       </c>
       <c r="B18">
-        <v>0.9950262308120728</v>
+        <v>0.9998654127120972</v>
       </c>
       <c r="C18">
-        <v>0.0005430252640508115</v>
+        <v>0.001625268836505711</v>
       </c>
       <c r="D18">
-        <v>0.9999017119407654</v>
+        <v>0.999803900718689</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.01105912495404482</v>
+        <v>0.0003747462760657072</v>
       </c>
       <c r="B19">
-        <v>0.994769275188446</v>
+        <v>0.9998430013656616</v>
       </c>
       <c r="C19">
-        <v>0.0006017456180416048</v>
+        <v>0.001675666542723775</v>
       </c>
       <c r="D19">
-        <v>0.9999017119407654</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.009915491566061974</v>
+        <v>0.0001375305437250063</v>
       </c>
       <c r="B20">
-        <v>0.9951914548873901</v>
+        <v>0.9999551177024841</v>
       </c>
       <c r="C20">
-        <v>0.0003327756130602211</v>
+        <v>0.003317722352221608</v>
       </c>
       <c r="D20">
-        <v>0.9999017119407654</v>
+        <v>0.999803900718689</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.01017281599342823</v>
+        <v>0.0003153570287395269</v>
       </c>
       <c r="B21">
-        <v>0.9951180219650269</v>
+        <v>0.9999327063560486</v>
       </c>
       <c r="C21">
-        <v>0.0006884746835567057</v>
+        <v>0.002282301662489772</v>
       </c>
       <c r="D21">
-        <v>0.9999017119407654</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0114231500774622</v>
+        <v>0.0008108025649562478</v>
       </c>
       <c r="B22">
-        <v>0.9943287968635559</v>
+        <v>0.9998654127120972</v>
       </c>
       <c r="C22">
-        <v>0.0004984972765669227</v>
+        <v>0.002164163626730442</v>
       </c>
       <c r="D22">
-        <v>0.9999017119407654</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.01046718657016754</v>
+        <v>0.0002270948025397956</v>
       </c>
       <c r="B23">
-        <v>0.9950813055038452</v>
+        <v>0.999910295009613</v>
       </c>
       <c r="C23">
-        <v>0.0004139374941587448</v>
+        <v>0.006921723484992981</v>
       </c>
       <c r="D23">
-        <v>0.9999017119407654</v>
+        <v>0.9997385740280151</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.008847244083881378</v>
+        <v>0.0003711171739269048</v>
       </c>
       <c r="B24">
-        <v>0.9975773692131042</v>
+        <v>0.9999551177024841</v>
       </c>
       <c r="C24">
-        <v>0.001170452916994691</v>
+        <v>0.002539742272347212</v>
       </c>
       <c r="D24">
-        <v>0.9993119835853577</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.008417185395956039</v>
+        <v>0.001101163681596518</v>
       </c>
       <c r="B25">
-        <v>0.9973938465118408</v>
+        <v>0.9997981786727905</v>
       </c>
       <c r="C25">
-        <v>0.001021871925331652</v>
+        <v>0.003056906629353762</v>
       </c>
       <c r="D25">
-        <v>0.9993119835853577</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.007609129417687654</v>
+        <v>0.0002077439421555027</v>
       </c>
       <c r="B26">
-        <v>0.9975773692131042</v>
+        <v>0.999910295009613</v>
       </c>
       <c r="C26">
-        <v>0.0006814959342591465</v>
+        <v>0.001975724240764976</v>
       </c>
       <c r="D26">
-        <v>0.9998034238815308</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.008907496929168701</v>
+        <v>0.0001041342038661242</v>
       </c>
       <c r="B27">
-        <v>0.9974305033683777</v>
+        <v>0.9999551177024841</v>
       </c>
       <c r="C27">
-        <v>0.0009621906210668385</v>
+        <v>0.002347868634387851</v>
       </c>
       <c r="D27">
-        <v>0.9998034238815308</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.00811323057860136</v>
+        <v>0.0002792274754028767</v>
       </c>
       <c r="B28">
-        <v>0.9971919655799866</v>
+        <v>0.999910295009613</v>
       </c>
       <c r="C28">
-        <v>0.0008256899891421199</v>
+        <v>0.002295139012858272</v>
       </c>
       <c r="D28">
-        <v>0.9998034238815308</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.007435527164489031</v>
+        <v>0.0004129930457565933</v>
       </c>
       <c r="B29">
-        <v>0.9974488615989685</v>
+        <v>0.9998654127120972</v>
       </c>
       <c r="C29">
-        <v>0.0005298028700053692</v>
+        <v>0.003743712091818452</v>
       </c>
       <c r="D29">
-        <v>0.9999017119407654</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.00739273801445961</v>
+        <v>0.0003320025571156293</v>
       </c>
       <c r="B30">
-        <v>0.997503936290741</v>
+        <v>0.9998878836631775</v>
       </c>
       <c r="C30">
-        <v>0.001015812740661204</v>
+        <v>0.003356365719810128</v>
       </c>
       <c r="D30">
-        <v>0.9997051358222961</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.006953287404030561</v>
+        <v>6.80771263432689E-05</v>
       </c>
       <c r="B31">
-        <v>0.9979260563850403</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C31">
-        <v>0.0004473814333323389</v>
+        <v>0.003379174042493105</v>
       </c>
       <c r="D31">
-        <v>0.9998034238815308</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.007381321396678686</v>
+        <v>0.0002117311232723296</v>
       </c>
       <c r="B32">
-        <v>0.9975222945213318</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C32">
-        <v>0.0003154218138661236</v>
+        <v>0.004439869895577431</v>
       </c>
       <c r="D32">
-        <v>0.9999017119407654</v>
+        <v>0.9995424747467041</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.006785957142710686</v>
+        <v>0.000303563429042697</v>
       </c>
       <c r="B33">
-        <v>0.9977976083755493</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C33">
-        <v>0.000542494235560298</v>
+        <v>0.008532056584954262</v>
       </c>
       <c r="D33">
-        <v>0.9999017119407654</v>
+        <v>0.9981045722961426</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.006779805291444063</v>
+        <v>0.0001228184555657208</v>
       </c>
       <c r="B34">
-        <v>0.9978159666061401</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C34">
-        <v>0.0008555236854590476</v>
+        <v>0.004903410095721483</v>
       </c>
       <c r="D34">
-        <v>0.9998034238815308</v>
+        <v>0.9996078610420227</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.008806852623820305</v>
+        <v>0.001190558425150812</v>
       </c>
       <c r="B35">
-        <v>0.997503936290741</v>
+        <v>0.9998430013656616</v>
       </c>
       <c r="C35">
-        <v>0.0003822158323600888</v>
+        <v>0.002360643586143851</v>
       </c>
       <c r="D35">
-        <v>0.9999017119407654</v>
+        <v>0.999803900718689</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.007184704300016165</v>
+        <v>0.0001502480590716004</v>
       </c>
       <c r="B36">
-        <v>0.9975957274436951</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C36">
-        <v>0.0005157907144166529</v>
+        <v>0.009292657487094402</v>
       </c>
       <c r="D36">
-        <v>0.9999017119407654</v>
+        <v>0.9958823323249817</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.006982109975069761</v>
+        <v>0.0005973048973828554</v>
       </c>
       <c r="B37">
-        <v>0.9977976083755493</v>
+        <v>0.9998430013656616</v>
       </c>
       <c r="C37">
-        <v>0.0005219883169047534</v>
+        <v>0.003298654919490218</v>
       </c>
       <c r="D37">
-        <v>0.9999017119407654</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.007302414625883102</v>
+        <v>0.0001404710201313719</v>
       </c>
       <c r="B38">
-        <v>0.9975773692131042</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C38">
-        <v>0.0003113193379249424</v>
+        <v>0.004033519886434078</v>
       </c>
       <c r="D38">
-        <v>0.9999017119407654</v>
+        <v>0.9997385740280151</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.006134184077382088</v>
+        <v>0.0001499985373811796</v>
       </c>
       <c r="B39">
-        <v>0.9980178475379944</v>
+        <v>0.9999551177024841</v>
       </c>
       <c r="C39">
-        <v>0.000159800925757736</v>
+        <v>0.2056060433387756</v>
       </c>
       <c r="D39">
-        <v>0.9999017119407654</v>
+        <v>0.973006546497345</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.00695985509082675</v>
+        <v>0.0005677217268384993</v>
       </c>
       <c r="B40">
-        <v>0.9975957274436951</v>
+        <v>0.9998878836631775</v>
       </c>
       <c r="C40">
-        <v>9.586791566107422E-05</v>
+        <v>0.002681964309886098</v>
       </c>
       <c r="D40">
-        <v>0.9999017119407654</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.006408245768398046</v>
+        <v>4.17267219745554E-05</v>
       </c>
       <c r="B41">
-        <v>0.9978526830673218</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C41">
-        <v>9.631867578718811E-05</v>
+        <v>0.002199480077251792</v>
       </c>
       <c r="D41">
-        <v>0.9999017119407654</v>
+        <v>0.999803900718689</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.007292019668966532</v>
+        <v>0.0002282280765939504</v>
       </c>
       <c r="B42">
-        <v>0.9978710412979126</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C42">
-        <v>0.0005408322322182357</v>
+        <v>0.003055559238418937</v>
       </c>
       <c r="D42">
-        <v>0.9999017119407654</v>
+        <v>0.9996731877326965</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.006705497391521931</v>
+        <v>9.227167902281508E-05</v>
       </c>
       <c r="B43">
-        <v>0.9978159666061401</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C43">
-        <v>0.0001541848614579067</v>
+        <v>0.004759395495057106</v>
       </c>
       <c r="D43">
-        <v>0.9999017119407654</v>
+        <v>0.9996078610420227</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.00614152243360877</v>
+        <v>0.0008515903609804809</v>
       </c>
       <c r="B44">
-        <v>0.9980178475379944</v>
+        <v>0.9998654127120972</v>
       </c>
       <c r="C44">
-        <v>5.653822154272348E-05</v>
+        <v>0.005835357587784529</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9994117617607117</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.007476923055946827</v>
+        <v>0.0002261419431306422</v>
       </c>
       <c r="B45">
-        <v>0.9976691007614136</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C45">
-        <v>0.0001613223139429465</v>
+        <v>0.004704890307039022</v>
       </c>
       <c r="D45">
-        <v>0.9999017119407654</v>
+        <v>0.9994771480560303</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.006865560542792082</v>
+        <v>0.0001170756586361676</v>
       </c>
       <c r="B46">
-        <v>0.9977792501449585</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C46">
-        <v>0.000171358507941477</v>
+        <v>0.003880236996337771</v>
       </c>
       <c r="D46">
-        <v>0.9999017119407654</v>
+        <v>0.9994771480560303</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.006822815630584955</v>
+        <v>2.512126229703426E-05</v>
       </c>
       <c r="B47">
-        <v>0.9977792501449585</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>6.540516915265471E-05</v>
+        <v>0.004128599539399147</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9996078610420227</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.006857239175587893</v>
+        <v>0.0003317774971947074</v>
       </c>
       <c r="B48">
-        <v>0.9979260563850403</v>
+        <v>0.9999551177024841</v>
       </c>
       <c r="C48">
-        <v>9.986878285417333E-05</v>
+        <v>0.003538544289767742</v>
       </c>
       <c r="D48">
-        <v>0.9999017119407654</v>
+        <v>0.9996078610420227</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0059819002635777</v>
+        <v>0.0004645197768695652</v>
       </c>
       <c r="B49">
-        <v>0.9980362057685852</v>
+        <v>0.999910295009613</v>
       </c>
       <c r="C49">
-        <v>0.0002893107302952558</v>
+        <v>0.008834082633256912</v>
       </c>
       <c r="D49">
-        <v>0.9999017119407654</v>
+        <v>0.9969934821128845</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.006553341634571552</v>
+        <v>0.0001582972618052736</v>
       </c>
       <c r="B50">
-        <v>0.997724175453186</v>
+        <v>0.9999775886535645</v>
       </c>
       <c r="C50">
-        <v>0.0005381765658967197</v>
+        <v>0.003768350463360548</v>
       </c>
       <c r="D50">
-        <v>0.9999017119407654</v>
+        <v>0.9998692870140076</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.007236814592033625</v>
+        <v>0.0007153008482418954</v>
       </c>
       <c r="B51">
-        <v>0.9973387718200684</v>
+        <v>0.9999551177024841</v>
       </c>
       <c r="C51">
-        <v>9.643127850722522E-05</v>
+        <v>0.01460480503737926</v>
       </c>
       <c r="D51">
-        <v>0.9999017119407654</v>
+        <v>0.9946405291557312</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_11.xlsx
+++ b/run_log/run_results/train_history/training_history_run_11.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.06344039738178253</v>
+        <v>0.0576084665954113</v>
       </c>
       <c r="B2">
-        <v>0.9872387051582336</v>
+        <v>0.9844096899032593</v>
       </c>
       <c r="C2">
-        <v>0.01868856512010098</v>
+        <v>0.01507177390158176</v>
       </c>
       <c r="D2">
-        <v>0.9983006715774536</v>
+        <v>0.998425304889679</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.009622324258089066</v>
+        <v>0.008390907198190689</v>
       </c>
       <c r="B3">
-        <v>0.9982057809829712</v>
+        <v>0.9982026815414429</v>
       </c>
       <c r="C3">
-        <v>0.009350425563752651</v>
+        <v>0.004987392108887434</v>
       </c>
       <c r="D3">
-        <v>0.9986274242401123</v>
+        <v>0.9993557929992676</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.004750330466777086</v>
+        <v>0.003105229465290904</v>
       </c>
       <c r="B4">
-        <v>0.9986991882324219</v>
+        <v>0.9991114139556885</v>
       </c>
       <c r="C4">
-        <v>0.04307442530989647</v>
+        <v>0.001565668499097228</v>
       </c>
       <c r="D4">
-        <v>0.9842483401298523</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.002519248286262155</v>
+        <v>0.001660863286815584</v>
       </c>
       <c r="B5">
-        <v>0.9993944764137268</v>
+        <v>0.9994547367095947</v>
       </c>
       <c r="C5">
-        <v>0.1015850231051445</v>
+        <v>0.002739168237894773</v>
       </c>
       <c r="D5">
-        <v>0.9587581753730774</v>
+        <v>0.9994989633560181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001754428492859006</v>
+        <v>0.001484747277572751</v>
       </c>
       <c r="B6">
-        <v>0.9993944764137268</v>
+        <v>0.9995759129524231</v>
       </c>
       <c r="C6">
-        <v>0.005921387579292059</v>
+        <v>0.001401059329509735</v>
       </c>
       <c r="D6">
-        <v>0.998431384563446</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001033064094372094</v>
+        <v>0.001164978835731745</v>
       </c>
       <c r="B7">
-        <v>0.9996860027313232</v>
+        <v>0.9997576475143433</v>
       </c>
       <c r="C7">
-        <v>0.002392819384112954</v>
+        <v>0.001681871013715863</v>
       </c>
       <c r="D7">
-        <v>0.9995424747467041</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.000368318083928898</v>
+        <v>0.000867362366989255</v>
       </c>
       <c r="B8">
-        <v>0.9999327063560486</v>
+        <v>0.9997374415397644</v>
       </c>
       <c r="C8">
-        <v>0.00712552247568965</v>
+        <v>0.001388045260682702</v>
       </c>
       <c r="D8">
-        <v>0.9970588088035583</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001066728611476719</v>
+        <v>0.001835264731198549</v>
       </c>
       <c r="B9">
-        <v>0.9995738863945007</v>
+        <v>0.9995557069778442</v>
       </c>
       <c r="C9">
-        <v>0.003266300074756145</v>
+        <v>0.001665345509536564</v>
       </c>
       <c r="D9">
-        <v>0.9990849494934082</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.001054296619258821</v>
+        <v>0.0008348791161552072</v>
       </c>
       <c r="B10">
-        <v>0.9996635913848877</v>
+        <v>0.9998586177825928</v>
       </c>
       <c r="C10">
-        <v>0.003284576814621687</v>
+        <v>0.001502249739132822</v>
       </c>
       <c r="D10">
-        <v>0.9996078610420227</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0003046854108106345</v>
+        <v>0.0003206375695299357</v>
       </c>
       <c r="B11">
-        <v>0.9999327063560486</v>
+        <v>0.9999595880508423</v>
       </c>
       <c r="C11">
-        <v>0.001471647177822888</v>
+        <v>0.001452634576708078</v>
       </c>
       <c r="D11">
-        <v>0.999803900718689</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0007782182656228542</v>
+        <v>0.0003198415506631136</v>
       </c>
       <c r="B12">
-        <v>0.9998205900192261</v>
+        <v>0.9998586177825928</v>
       </c>
       <c r="C12">
-        <v>0.002296320861205459</v>
+        <v>0.002353767398744822</v>
       </c>
       <c r="D12">
-        <v>0.9997385740280151</v>
+        <v>0.9997137188911438</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.001022602431476116</v>
+        <v>0.001060804817825556</v>
       </c>
       <c r="B13">
-        <v>0.9996635913848877</v>
+        <v>0.999798059463501</v>
       </c>
       <c r="C13">
-        <v>0.0016708456678316</v>
+        <v>0.001451039570383728</v>
       </c>
       <c r="D13">
-        <v>0.9996731877326965</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>8.251862163888291E-05</v>
+        <v>0.0006114544230513275</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.9998182654380798</v>
       </c>
       <c r="C14">
-        <v>0.00180995324626565</v>
+        <v>0.001858364674262702</v>
       </c>
       <c r="D14">
-        <v>0.9996078610420227</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0007882217178121209</v>
+        <v>0.0007283990853466094</v>
       </c>
       <c r="B15">
-        <v>0.9998430013656616</v>
+        <v>0.9998384714126587</v>
       </c>
       <c r="C15">
-        <v>0.001503518666140735</v>
+        <v>0.002547782380133867</v>
       </c>
       <c r="D15">
-        <v>0.9997385740280151</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0005129491328261793</v>
+        <v>0.0001959305809577927</v>
       </c>
       <c r="B16">
-        <v>0.9997981786727905</v>
+        <v>0.9999394416809082</v>
       </c>
       <c r="C16">
-        <v>0.0008394100586883724</v>
+        <v>0.002105168765410781</v>
       </c>
       <c r="D16">
-        <v>0.9998692870140076</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.0003737210354302078</v>
+        <v>0.0005859470693394542</v>
       </c>
       <c r="B17">
-        <v>0.9998430013656616</v>
+        <v>0.9999192357063293</v>
       </c>
       <c r="C17">
-        <v>0.02692805044353008</v>
+        <v>0.0008411071030423045</v>
       </c>
       <c r="D17">
-        <v>0.9896078705787659</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.000610753137152642</v>
+        <v>0.0004435898154042661</v>
       </c>
       <c r="B18">
-        <v>0.9998654127120972</v>
+        <v>0.9998586177825928</v>
       </c>
       <c r="C18">
-        <v>0.001625268836505711</v>
+        <v>0.001463642111048102</v>
       </c>
       <c r="D18">
-        <v>0.999803900718689</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0003747462760657072</v>
+        <v>0.0003710883029270917</v>
       </c>
       <c r="B19">
-        <v>0.9998430013656616</v>
+        <v>0.9998788237571716</v>
       </c>
       <c r="C19">
-        <v>0.001675666542723775</v>
+        <v>0.001283077173866332</v>
       </c>
       <c r="D19">
-        <v>0.9998692870140076</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0001375305437250063</v>
+        <v>0.0002178992726840079</v>
       </c>
       <c r="B20">
-        <v>0.9999551177024841</v>
+        <v>0.9999394416809082</v>
       </c>
       <c r="C20">
-        <v>0.003317722352221608</v>
+        <v>0.002492540050297976</v>
       </c>
       <c r="D20">
-        <v>0.999803900718689</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0003153570287395269</v>
+        <v>0.00022945660748519</v>
       </c>
       <c r="B21">
-        <v>0.9999327063560486</v>
+        <v>0.9998990297317505</v>
       </c>
       <c r="C21">
-        <v>0.002282301662489772</v>
+        <v>0.002242187736555934</v>
       </c>
       <c r="D21">
-        <v>0.9998692870140076</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0008108025649562478</v>
+        <v>0.0003285407146904618</v>
       </c>
       <c r="B22">
-        <v>0.9998654127120972</v>
+        <v>0.9999192357063293</v>
       </c>
       <c r="C22">
-        <v>0.002164163626730442</v>
+        <v>0.001912795123644173</v>
       </c>
       <c r="D22">
-        <v>0.9998692870140076</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.0002270948025397956</v>
+        <v>8.283296483568847E-05</v>
       </c>
       <c r="B23">
-        <v>0.999910295009613</v>
+        <v>0.9999595880508423</v>
       </c>
       <c r="C23">
-        <v>0.006921723484992981</v>
+        <v>0.002252142177894711</v>
       </c>
       <c r="D23">
-        <v>0.9997385740280151</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0003711171739269048</v>
+        <v>2.261812733195256E-05</v>
       </c>
       <c r="B24">
-        <v>0.9999551177024841</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>0.002539742272347212</v>
+        <v>0.001655915868468583</v>
       </c>
       <c r="D24">
-        <v>0.9998692870140076</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.001101163681596518</v>
+        <v>0.001296588568948209</v>
       </c>
       <c r="B25">
-        <v>0.9997981786727905</v>
+        <v>0.9997172951698303</v>
       </c>
       <c r="C25">
-        <v>0.003056906629353762</v>
+        <v>0.0003999467589892447</v>
       </c>
       <c r="D25">
-        <v>0.9998692870140076</v>
+        <v>0.9999284148216248</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0002077439421555027</v>
+        <v>7.327401544898748E-05</v>
       </c>
       <c r="B26">
-        <v>0.999910295009613</v>
+        <v>0.9999797940254211</v>
       </c>
       <c r="C26">
-        <v>0.001975724240764976</v>
+        <v>0.001411285367794335</v>
       </c>
       <c r="D26">
-        <v>0.9996731877326965</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0001041342038661242</v>
+        <v>0.000190761114936322</v>
       </c>
       <c r="B27">
-        <v>0.9999551177024841</v>
+        <v>0.9999797940254211</v>
       </c>
       <c r="C27">
-        <v>0.002347868634387851</v>
+        <v>0.002003897912800312</v>
       </c>
       <c r="D27">
-        <v>0.9998692870140076</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0002792274754028767</v>
+        <v>0.0005537224933505058</v>
       </c>
       <c r="B28">
-        <v>0.999910295009613</v>
+        <v>0.9998990297317505</v>
       </c>
       <c r="C28">
-        <v>0.002295139012858272</v>
+        <v>0.0002932380884885788</v>
       </c>
       <c r="D28">
-        <v>0.9998692870140076</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0004129930457565933</v>
+        <v>2.671337279025465E-05</v>
       </c>
       <c r="B29">
-        <v>0.9998654127120972</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0.003743712091818452</v>
+        <v>0.0004444809164851904</v>
       </c>
       <c r="D29">
-        <v>0.9998692870140076</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0003320025571156293</v>
+        <v>0.0001308671344304457</v>
       </c>
       <c r="B30">
-        <v>0.9998878836631775</v>
+        <v>0.9999595880508423</v>
       </c>
       <c r="C30">
-        <v>0.003356365719810128</v>
+        <v>0.0004463412333279848</v>
       </c>
       <c r="D30">
-        <v>0.9998692870140076</v>
+        <v>0.9999284148216248</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>6.80771263432689E-05</v>
+        <v>1.320227238466032E-05</v>
       </c>
       <c r="B31">
-        <v>0.9999775886535645</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>0.003379174042493105</v>
+        <v>0.0006775259971618652</v>
       </c>
       <c r="D31">
-        <v>0.9998692870140076</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0002117311232723296</v>
+        <v>0.0005253042909316719</v>
       </c>
       <c r="B32">
-        <v>0.9999775886535645</v>
+        <v>0.9998384714126587</v>
       </c>
       <c r="C32">
-        <v>0.004439869895577431</v>
+        <v>0.0001497242919867858</v>
       </c>
       <c r="D32">
-        <v>0.9995424747467041</v>
+        <v>0.9999284148216248</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.000303563429042697</v>
+        <v>0.0005554304807446897</v>
       </c>
       <c r="B33">
-        <v>0.9999775886535645</v>
+        <v>0.9998990297317505</v>
       </c>
       <c r="C33">
-        <v>0.008532056584954262</v>
+        <v>0.0001786122738849372</v>
       </c>
       <c r="D33">
-        <v>0.9981045722961426</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0001228184555657208</v>
+        <v>3.182193904649466E-05</v>
       </c>
       <c r="B34">
-        <v>0.9999775886535645</v>
+        <v>0.9999797940254211</v>
       </c>
       <c r="C34">
-        <v>0.004903410095721483</v>
+        <v>0.001665437826886773</v>
       </c>
       <c r="D34">
-        <v>0.9996078610420227</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.001190558425150812</v>
+        <v>0.0002613798424135894</v>
       </c>
       <c r="B35">
-        <v>0.9998430013656616</v>
+        <v>0.9999595880508423</v>
       </c>
       <c r="C35">
-        <v>0.002360643586143851</v>
+        <v>0.001240541110746562</v>
       </c>
       <c r="D35">
-        <v>0.999803900718689</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0001502480590716004</v>
+        <v>0.0003156974271405488</v>
       </c>
       <c r="B36">
-        <v>0.9999775886535645</v>
+        <v>0.9999595880508423</v>
       </c>
       <c r="C36">
-        <v>0.009292657487094402</v>
+        <v>0.0008084229193627834</v>
       </c>
       <c r="D36">
-        <v>0.9958823323249817</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.0005973048973828554</v>
+        <v>0.0002196431596530601</v>
       </c>
       <c r="B37">
-        <v>0.9998430013656616</v>
+        <v>0.9999595880508423</v>
       </c>
       <c r="C37">
-        <v>0.003298654919490218</v>
+        <v>0.001076194457709789</v>
       </c>
       <c r="D37">
-        <v>0.9998692870140076</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0001404710201313719</v>
+        <v>0.0002906432200688869</v>
       </c>
       <c r="B38">
-        <v>0.9999775886535645</v>
+        <v>0.9999394416809082</v>
       </c>
       <c r="C38">
-        <v>0.004033519886434078</v>
+        <v>0.0006955883000046015</v>
       </c>
       <c r="D38">
-        <v>0.9997385740280151</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0001499985373811796</v>
+        <v>1.505835825810209E-05</v>
       </c>
       <c r="B39">
-        <v>0.9999551177024841</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.2056060433387756</v>
+        <v>0.0006742156110703945</v>
       </c>
       <c r="D39">
-        <v>0.973006546497345</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0005677217268384993</v>
+        <v>1.918103180287289E-06</v>
       </c>
       <c r="B40">
-        <v>0.9998878836631775</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>0.002681964309886098</v>
+        <v>0.0007515454781241715</v>
       </c>
       <c r="D40">
-        <v>0.9996731877326965</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>4.17267219745554E-05</v>
+        <v>0.0003434353566262871</v>
       </c>
       <c r="B41">
-        <v>0.9999775886535645</v>
+        <v>0.9999394416809082</v>
       </c>
       <c r="C41">
-        <v>0.002199480077251792</v>
+        <v>0.002784417476505041</v>
       </c>
       <c r="D41">
-        <v>0.999803900718689</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0002282280765939504</v>
+        <v>0.0006921313470229506</v>
       </c>
       <c r="B42">
-        <v>0.9999775886535645</v>
+        <v>0.9997778534889221</v>
       </c>
       <c r="C42">
-        <v>0.003055559238418937</v>
+        <v>0.001658034627325833</v>
       </c>
       <c r="D42">
-        <v>0.9996731877326965</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>9.227167902281508E-05</v>
+        <v>0.0004707902844529599</v>
       </c>
       <c r="B43">
-        <v>0.9999775886535645</v>
+        <v>0.9998384714126587</v>
       </c>
       <c r="C43">
-        <v>0.004759395495057106</v>
+        <v>0.0009196344180963933</v>
       </c>
       <c r="D43">
-        <v>0.9996078610420227</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.0008515903609804809</v>
+        <v>0.0004515611799433827</v>
       </c>
       <c r="B44">
-        <v>0.9998654127120972</v>
+        <v>0.9999595880508423</v>
       </c>
       <c r="C44">
-        <v>0.005835357587784529</v>
+        <v>0.002744687488302588</v>
       </c>
       <c r="D44">
-        <v>0.9994117617607117</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0002261419431306422</v>
+        <v>0.0002983151935040951</v>
       </c>
       <c r="B45">
-        <v>0.9999775886535645</v>
+        <v>0.9999394416809082</v>
       </c>
       <c r="C45">
-        <v>0.004704890307039022</v>
+        <v>0.002172876382246614</v>
       </c>
       <c r="D45">
-        <v>0.9994771480560303</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0001170756586361676</v>
+        <v>0.0002042712731054053</v>
       </c>
       <c r="B46">
-        <v>0.9999775886535645</v>
+        <v>0.9999797940254211</v>
       </c>
       <c r="C46">
-        <v>0.003880236996337771</v>
+        <v>0.002478931332007051</v>
       </c>
       <c r="D46">
-        <v>0.9994771480560303</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>2.512126229703426E-05</v>
+        <v>6.489568477263674E-06</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.004128599539399147</v>
+        <v>0.002649120520800352</v>
       </c>
       <c r="D47">
-        <v>0.9996078610420227</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0003317774971947074</v>
+        <v>0.0002376199554419145</v>
       </c>
       <c r="B48">
-        <v>0.9999551177024841</v>
+        <v>0.9998788237571716</v>
       </c>
       <c r="C48">
-        <v>0.003538544289767742</v>
+        <v>0.002420897828415036</v>
       </c>
       <c r="D48">
-        <v>0.9996078610420227</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0004645197768695652</v>
+        <v>0.000182044692337513</v>
       </c>
       <c r="B49">
-        <v>0.999910295009613</v>
+        <v>0.9999192357063293</v>
       </c>
       <c r="C49">
-        <v>0.008834082633256912</v>
+        <v>4.250204074196517E-05</v>
       </c>
       <c r="D49">
-        <v>0.9969934821128845</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0001582972618052736</v>
+        <v>0.0006724332342855632</v>
       </c>
       <c r="B50">
-        <v>0.9999775886535645</v>
+        <v>0.9998586177825928</v>
       </c>
       <c r="C50">
-        <v>0.003768350463360548</v>
+        <v>0.0009184758528135717</v>
       </c>
       <c r="D50">
-        <v>0.9998692870140076</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0007153008482418954</v>
+        <v>2.023386332439259E-05</v>
       </c>
       <c r="B51">
-        <v>0.9999551177024841</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.01460480503737926</v>
+        <v>0.001325072953477502</v>
       </c>
       <c r="D51">
-        <v>0.9946405291557312</v>
+        <v>0.9998568296432495</v>
       </c>
     </row>
   </sheetData>
